--- a/tests/Test_Basler_2025_09.xlsx
+++ b/tests/Test_Basler_2025_09.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tools\git_repo\LEnsE\ressources\machine-vision-gui\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_git\lense-ressources\machine-vision-gui\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25786BDF-CC38-4B82-94D3-90B68C155722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D487CAB7-CEDB-4D96-97D1-2EFC9C3641E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basler_infos" sheetId="5" r:id="rId1"/>
@@ -619,28 +619,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-99</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-99</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-99</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-99</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-99</c:v>
+                  <c:v>1.5999999999999943</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-99</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-99</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-99</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,16 +1039,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.71196910045310258</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.3076696830622019</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.9364916731037085</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.7244999541200219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1431,28 +1431,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-99</c:v>
+                  <c:v>-253</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-99</c:v>
+                  <c:v>-253</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-99</c:v>
+                  <c:v>-253</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-99</c:v>
+                  <c:v>-253</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-99</c:v>
+                  <c:v>-253</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-99</c:v>
+                  <c:v>-253</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-99</c:v>
+                  <c:v>-253</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-99</c:v>
+                  <c:v>-253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5031,7 +5031,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5113,12 +5113,12 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="B7" s="8">
-        <v>99</v>
+        <v>253</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="8">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F7" s="9"/>
     </row>
@@ -5126,128 +5126,160 @@
       <c r="A8" s="7">
         <v>1E-4</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="8">
+        <v>253</v>
+      </c>
       <c r="C8" s="9">
         <f>B8-$B$7</f>
-        <v>-99</v>
+        <v>0</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="11" t="e">
+      <c r="E8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="11">
         <f>SQRT(E8^2-$E$7^2)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1E-3</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="8">
+        <v>253</v>
+      </c>
       <c r="C9" s="9">
         <f>B9-$B$7</f>
-        <v>-99</v>
+        <v>0</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="11" t="e">
+      <c r="E9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="11">
         <f>SQRT(E9^2-$E$7^2)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>0.01</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="8">
+        <v>253</v>
+      </c>
       <c r="C10" s="9">
         <f t="shared" ref="C10:C15" si="0">B10-$B$7</f>
-        <v>-99</v>
+        <v>0</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="11" t="e">
+      <c r="E10" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="11">
         <f t="shared" ref="F10:F15" si="1">SQRT(E10^2-$E$7^2)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>0.1</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="8">
+        <v>254</v>
+      </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>-99</v>
+        <v>1</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="11" t="e">
+      <c r="E11" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="11">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>0.5</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="8">
+        <v>254.6</v>
+      </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>-99</v>
+        <v>1.5999999999999943</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="11" t="e">
+      <c r="E12" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="F12" s="11">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>0.71196910045310258</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>1</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="8">
+        <v>255.5</v>
+      </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>-99</v>
+        <v>2.5</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="11" t="e">
+      <c r="E13" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="F13" s="11">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>1.3076696830622019</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>1.5</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="8">
+        <v>252</v>
+      </c>
       <c r="C14" s="9">
         <f t="shared" si="0"/>
-        <v>-99</v>
+        <v>-1</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="11" t="e">
+      <c r="E14" s="8">
+        <v>2</v>
+      </c>
+      <c r="F14" s="11">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>1.9364916731037085</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>1.9</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="8">
+        <v>252</v>
+      </c>
       <c r="C15" s="9">
         <f t="shared" si="0"/>
-        <v>-99</v>
+        <v>-1</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="11" t="e">
+      <c r="E15" s="8">
+        <v>2.77</v>
+      </c>
+      <c r="F15" s="11">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>2.7244999541200219</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5311,16 +5343,16 @@
       <c r="B23" s="8"/>
       <c r="C23" s="9">
         <f>B23-$B$7</f>
-        <v>-99</v>
+        <v>-253</v>
       </c>
       <c r="D23" s="9" t="e">
         <f>SQRT(C23)</f>
         <v>#NUM!</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="11">
+      <c r="F23" s="11" t="e">
         <f t="shared" ref="F23:F30" si="2">SQRT(E23^2-$E$8^2)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5330,16 +5362,16 @@
       <c r="B24" s="8"/>
       <c r="C24" s="9">
         <f t="shared" ref="C24:C30" si="3">B24-$B$7</f>
-        <v>-99</v>
+        <v>-253</v>
       </c>
       <c r="D24" s="9" t="e">
         <f t="shared" ref="D24:D30" si="4">SQRT(C24)</f>
         <v>#NUM!</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="11">
+      <c r="F24" s="11" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5349,16 +5381,16 @@
       <c r="B25" s="8"/>
       <c r="C25" s="9">
         <f t="shared" si="3"/>
-        <v>-99</v>
+        <v>-253</v>
       </c>
       <c r="D25" s="9" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="11">
+      <c r="F25" s="11" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5368,16 +5400,16 @@
       <c r="B26" s="8"/>
       <c r="C26" s="9">
         <f t="shared" si="3"/>
-        <v>-99</v>
+        <v>-253</v>
       </c>
       <c r="D26" s="9" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="E26" s="8"/>
-      <c r="F26" s="11">
+      <c r="F26" s="11" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5387,16 +5419,16 @@
       <c r="B27" s="8"/>
       <c r="C27" s="9">
         <f t="shared" si="3"/>
-        <v>-99</v>
+        <v>-253</v>
       </c>
       <c r="D27" s="9" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="E27" s="8"/>
-      <c r="F27" s="11">
+      <c r="F27" s="11" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5406,16 +5438,16 @@
       <c r="B28" s="8"/>
       <c r="C28" s="9">
         <f t="shared" si="3"/>
-        <v>-99</v>
+        <v>-253</v>
       </c>
       <c r="D28" s="9" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="E28" s="8"/>
-      <c r="F28" s="11">
+      <c r="F28" s="11" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -5425,16 +5457,16 @@
       <c r="B29" s="8"/>
       <c r="C29" s="9">
         <f t="shared" si="3"/>
-        <v>-99</v>
+        <v>-253</v>
       </c>
       <c r="D29" s="9" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="E29" s="8"/>
-      <c r="F29" s="11">
+      <c r="F29" s="11" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -5444,16 +5476,16 @@
       <c r="B30" s="8"/>
       <c r="C30" s="9">
         <f t="shared" si="3"/>
-        <v>-99</v>
+        <v>-253</v>
       </c>
       <c r="D30" s="9" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="E30" s="8"/>
-      <c r="F30" s="11">
+      <c r="F30" s="11" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>

--- a/tests/Test_Basler_2025_09.xlsx
+++ b/tests/Test_Basler_2025_09.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_git\lense-ressources\machine-vision-gui\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D487CAB7-CEDB-4D96-97D1-2EFC9C3641E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9482DA91-45FA-49A2-98E9-9FACE07D6720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1393,7 +1393,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Basler_Complet!$A$23:$A$30</c:f>
+              <c:f>Basler_Complet!$A$22:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1426,7 +1426,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Basler_Complet!$C$23:$C$30</c:f>
+              <c:f>Basler_Complet!$C$22:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1797,7 +1797,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Basler_Complet!$D$23:$D$30</c:f>
+              <c:f>Basler_Complet!$D$22:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1830,7 +1830,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Basler_Complet!$F$23:$F$30</c:f>
+              <c:f>Basler_Complet!$F$22:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4357,13 +4357,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4393,13 +4393,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5028,10 +5028,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F842E806-3489-423F-BBA9-D8AF74B92826}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5282,90 +5282,109 @@
         <v>2.7244999541200219</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="3">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="A19" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>44</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="9"/>
+      <c r="A22" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9">
+        <f>B22-$B$7</f>
+        <v>-253</v>
+      </c>
+      <c r="D22" s="9" t="e">
+        <f>SQRT(C22)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="11" t="e">
+        <f t="shared" ref="F22:F29" si="2">SQRT(E22^2-$E$8^2)</f>
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="9">
-        <f>B23-$B$7</f>
+        <f t="shared" ref="C23:C29" si="3">B23-$B$7</f>
         <v>-253</v>
       </c>
       <c r="D23" s="9" t="e">
-        <f>SQRT(C23)</f>
+        <f t="shared" ref="D23:D29" si="4">SQRT(C23)</f>
         <v>#NUM!</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="11" t="e">
-        <f t="shared" ref="F23:F30" si="2">SQRT(E23^2-$E$8^2)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="9">
-        <f t="shared" ref="C24:C30" si="3">B24-$B$7</f>
+        <f t="shared" si="3"/>
         <v>-253</v>
       </c>
       <c r="D24" s="9" t="e">
-        <f t="shared" ref="D24:D30" si="4">SQRT(C24)</f>
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="E24" s="8"/>
@@ -5376,7 +5395,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="9">
@@ -5395,7 +5414,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="9">
@@ -5414,7 +5433,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="9">
@@ -5433,7 +5452,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="9">
@@ -5452,7 +5471,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="9">
@@ -5465,25 +5484,6 @@
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>2</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9">
-        <f t="shared" si="3"/>
-        <v>-253</v>
-      </c>
-      <c r="D30" s="9" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
